--- a/assign_sample.xlsx
+++ b/assign_sample.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
-    <sheet name="PSA by Disc Rate" sheetId="7" r:id="rId2"/>
-    <sheet name="FRM Balance Chart" sheetId="4" r:id="rId3"/>
-    <sheet name="Payment Chart" sheetId="6" r:id="rId4"/>
+    <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
+    <sheet name="PSA by Disc Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="FRM Balance Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Liu Xiao - Personal View" guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1280" windowHeight="749" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -142,6 +146,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>dddd</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122075304"/>
-        <c:axId val="2122078536"/>
+        <c:axId val="2076796184"/>
+        <c:axId val="2075912584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122075304"/>
+        <c:axId val="2076796184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122078536"/>
+        <c:crossAx val="2075912584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122078536"/>
+        <c:axId val="2075912584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1158,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122075304"/>
+        <c:crossAx val="2076796184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,11 +2751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145059064"/>
-        <c:axId val="-2141421656"/>
+        <c:axId val="2076851992"/>
+        <c:axId val="2039595288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145059064"/>
+        <c:axId val="2076851992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141421656"/>
+        <c:crossAx val="2039595288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141421656"/>
+        <c:axId val="2039595288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145059064"/>
+        <c:crossAx val="2076851992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,11 +3129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143184104"/>
-        <c:axId val="2118085080"/>
+        <c:axId val="2075987640"/>
+        <c:axId val="2075995176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143184104"/>
+        <c:axId val="2075987640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118085080"/>
+        <c:crossAx val="2075995176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3210,7 +3217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118085080"/>
+        <c:axId val="2075995176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143184104"/>
+        <c:crossAx val="2075987640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3349,6 +3356,9 @@
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" scale="192"/>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
@@ -3360,6 +3370,12 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" scale="80">
+      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -3373,6 +3389,11 @@
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" scale="85">
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -3437,7 +3458,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8583706" cy="5838265"/>
+    <xdr:ext cx="8591176" cy="5842000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3458,6 +3479,135 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{761E9927-8F5E-C54E-9B75-BF2A3ACFB88B}" diskRevisions="1" revisionId="4" version="5">
+  <header guid="{1CA11F38-7FA9-AF43-9AE9-5FFF7D29FABB}" dateTime="2015-08-26T21:34:03" maxSheetId="6" userName="Liu Xiao" r:id="rId1">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D60450C5-554B-9A42-B64D-FD2982F4CDA6}" dateTime="2015-08-26T21:37:16" maxSheetId="6" userName="Liu Xiao" r:id="rId2" minRId="1">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4EB07163-E89B-FC40-8A7B-2A10E7748498}" dateTime="2015-08-26T21:40:34" maxSheetId="6" userName="Liu Xiao" r:id="rId3" minRId="2">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A4EB405-F06E-1A47-96F6-A1F6A9EA1F95}" dateTime="2015-08-26T21:40:38" maxSheetId="6" userName="Liu Xiao" r:id="rId4" minRId="3">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{761E9927-8F5E-C54E-9B75-BF2A3ACFB88B}" dateTime="2015-08-26T21:40:42" maxSheetId="6" userName="Liu Xiao" r:id="rId5" minRId="4">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>aaa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="delete"/>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>aaa</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>aa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="delete"/>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>aa</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>ccc</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="delete"/>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>ccc</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>dddd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="delete"/>
+  <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3750,8 +3900,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3786,6 +3936,9 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="2"/>
@@ -22643,6 +22796,13 @@
       <c r="D498" s="6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -22653,4 +22813,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}"/>
+  </customSheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assign_sample.xlsx
+++ b/assign_sample.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>dddd</t>
   </si>
 </sst>
 </file>
@@ -1131,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076796184"/>
-        <c:axId val="2075912584"/>
+        <c:axId val="2087735928"/>
+        <c:axId val="2088001160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2076796184"/>
+        <c:axId val="2087735928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075912584"/>
+        <c:crossAx val="2088001160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075912584"/>
+        <c:axId val="2088001160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1165,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076796184"/>
+        <c:crossAx val="2087735928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2751,11 +2748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076851992"/>
-        <c:axId val="2039595288"/>
+        <c:axId val="2086805512"/>
+        <c:axId val="2087193400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2076851992"/>
+        <c:axId val="2086805512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +2826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039595288"/>
+        <c:crossAx val="2087193400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039595288"/>
+        <c:axId val="2087193400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076851992"/>
+        <c:crossAx val="2086805512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,11 +3126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075987640"/>
-        <c:axId val="2075995176"/>
+        <c:axId val="2088126680"/>
+        <c:axId val="2088134232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075987640"/>
+        <c:axId val="2088126680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075995176"/>
+        <c:crossAx val="2088134232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3217,7 +3214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075995176"/>
+        <c:axId val="2088134232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075987640"/>
+        <c:crossAx val="2088126680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3359,7 +3356,7 @@
   <customSheetViews>
     <customSheetView guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" scale="192"/>
   </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3482,7 +3479,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{761E9927-8F5E-C54E-9B75-BF2A3ACFB88B}" diskRevisions="1" revisionId="4" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{73B15545-B3F5-214D-A4DB-754220A821E0}" diskRevisions="1" revisionId="5" version="6">
   <header guid="{1CA11F38-7FA9-AF43-9AE9-5FFF7D29FABB}" dateTime="2015-08-26T21:34:03" maxSheetId="6" userName="Liu Xiao" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -3520,6 +3517,15 @@
     </sheetIdMap>
   </header>
   <header guid="{761E9927-8F5E-C54E-9B75-BF2A3ACFB88B}" dateTime="2015-08-26T21:40:42" maxSheetId="6" userName="Liu Xiao" r:id="rId5" minRId="4">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{73B15545-B3F5-214D-A4DB-754220A821E0}" dateTime="2015-08-27T09:50:29" maxSheetId="6" userName="Liu Xiao" r:id="rId6" minRId="5">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -3603,6 +3609,19 @@
   </rcc>
   <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="delete"/>
   <rcv guid="{E866B2AE-E135-9B4E-AAC8-EAC70172B138}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>dddd</t>
+      </is>
+    </oc>
+    <nc r="D2"/>
+  </rcc>
 </revisions>
 </file>
 
@@ -3901,7 +3920,7 @@
   <dimension ref="A1:AG498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3935,9 +3954,6 @@
     <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:33">

--- a/assign_sample.xlsx
+++ b/assign_sample.xlsx
@@ -1128,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087735928"/>
-        <c:axId val="2088001160"/>
+        <c:axId val="2120962408"/>
+        <c:axId val="2120965768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087735928"/>
+        <c:axId val="2120962408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088001160"/>
+        <c:crossAx val="2120965768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1150,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088001160"/>
+        <c:axId val="2120965768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1162,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087735928"/>
+        <c:crossAx val="2120962408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,11 +2748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086805512"/>
-        <c:axId val="2087193400"/>
+        <c:axId val="2121001048"/>
+        <c:axId val="2121008568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086805512"/>
+        <c:axId val="2121001048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087193400"/>
+        <c:crossAx val="2121008568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2836,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087193400"/>
+        <c:axId val="2121008568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086805512"/>
+        <c:crossAx val="2121001048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,11 +3126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088126680"/>
-        <c:axId val="2088134232"/>
+        <c:axId val="2121074472"/>
+        <c:axId val="2121082008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088126680"/>
+        <c:axId val="2121074472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,7 +3204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088134232"/>
+        <c:crossAx val="2121082008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3214,7 +3214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088134232"/>
+        <c:axId val="2121082008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088126680"/>
+        <c:crossAx val="2121074472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3625,7 +3625,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -3919,8 +3919,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
